--- a/oldgoldmine-scene/Tecniche.xlsx
+++ b/oldgoldmine-scene/Tecniche.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damiano\Google Drive\Polito\Informatica grafica\Progetto Grafica\OldGoldMine\oldgoldmine-scene\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackaL\source\repos\oldgoldmine-game\oldgoldmine-scene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CABC5EE7-FDE5-4468-8DB8-A0A46DE34E8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331E9FF5-A1B0-49AB-AB55-AD13D0092ECE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CA35FD49-B048-4DD9-AC47-1238A26E3A25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CA35FD49-B048-4DD9-AC47-1238A26E3A25}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="45">
   <si>
     <t>\</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -526,22 +529,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9734D29F-38DB-4CCD-84B1-0C16942DFD6A}">
   <dimension ref="A1:AK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:L25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="12" width="23.44140625" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" customWidth="1"/>
-    <col min="14" max="34" width="23.44140625" customWidth="1"/>
+    <col min="2" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="12" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="34" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +607,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -659,7 +662,7 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,7 +705,7 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,7 +756,7 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,7 +809,7 @@
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -851,7 +854,7 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -904,7 +907,7 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -953,7 +956,7 @@
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1016,7 +1019,7 @@
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1059,7 +1062,7 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1112,7 +1115,7 @@
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1125,7 +1128,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1153,7 +1158,7 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1196,7 +1201,7 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1241,7 +1246,7 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1282,7 +1287,7 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1323,7 +1328,7 @@
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1371,7 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +1414,7 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
     </row>
-    <row r="19" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1471,7 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
     </row>
-    <row r="20" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1514,7 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1573,7 @@
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1632,7 @@
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1670,7 +1675,7 @@
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1711,7 +1716,7 @@
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1774,7 +1779,7 @@
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1815,7 +1820,7 @@
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1856,7 +1861,7 @@
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1919,7 +1924,7 @@
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
     </row>
-    <row r="29" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -1982,7 +1987,7 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2025,7 +2030,7 @@
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2066,7 +2071,7 @@
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2093,7 +2098,7 @@
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
     </row>
-    <row r="33" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2120,7 +2125,7 @@
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
     </row>
-    <row r="34" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2147,7 +2152,7 @@
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
     </row>
-    <row r="35" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2174,7 +2179,7 @@
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
     </row>
-    <row r="36" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2201,7 +2206,7 @@
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
     </row>
-    <row r="37" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2228,7 +2233,7 @@
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
     </row>
-    <row r="38" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2255,7 +2260,7 @@
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
     </row>
-    <row r="39" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2282,7 +2287,7 @@
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
     </row>
-    <row r="40" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2309,7 +2314,7 @@
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
     </row>
-    <row r="41" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -2336,7 +2341,7 @@
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
     </row>
-    <row r="42" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2363,7 +2368,7 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
     </row>
-    <row r="43" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2390,7 +2395,7 @@
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
     </row>
-    <row r="44" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2417,7 +2422,7 @@
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
     </row>
-    <row r="45" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2444,7 +2449,7 @@
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
     </row>
-    <row r="46" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -2471,7 +2476,7 @@
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
     </row>
-    <row r="47" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2510,7 +2515,7 @@
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
     </row>
-    <row r="48" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2549,7 +2554,7 @@
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
     </row>
-    <row r="49" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2588,7 +2593,7 @@
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
     </row>
-    <row r="50" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2627,7 +2632,7 @@
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
     </row>
-    <row r="51" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2666,7 +2671,7 @@
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
     </row>
-    <row r="52" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2705,7 +2710,7 @@
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
     </row>
-    <row r="53" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2744,7 +2749,7 @@
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
     </row>
-    <row r="54" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2783,7 +2788,7 @@
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2822,7 +2827,7 @@
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
     </row>
-    <row r="56" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2861,7 +2866,7 @@
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
     </row>
-    <row r="57" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2900,7 +2905,7 @@
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
     </row>
-    <row r="58" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2939,7 +2944,7 @@
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
     </row>
-    <row r="59" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2978,7 +2983,7 @@
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
     </row>
-    <row r="60" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3017,7 +3022,7 @@
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
     </row>
-    <row r="61" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3056,7 +3061,7 @@
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
     </row>
-    <row r="62" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>

--- a/oldgoldmine-scene/Tecniche.xlsx
+++ b/oldgoldmine-scene/Tecniche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackaL\source\repos\oldgoldmine-game\oldgoldmine-scene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331E9FF5-A1B0-49AB-AB55-AD13D0092ECE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975311DE-DCD7-440A-802A-B323E1CF20B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CA35FD49-B048-4DD9-AC47-1238A26E3A25}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="45">
   <si>
     <t>\</t>
   </si>
@@ -529,13 +529,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9734D29F-38DB-4CCD-84B1-0C16942DFD6A}">
   <dimension ref="A1:AK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="8" width="23.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -544,7 +544,7 @@
     <col min="14" max="34" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,17 +1250,39 @@
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2042,7 +2064,9 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>

--- a/oldgoldmine-scene/Tecniche.xlsx
+++ b/oldgoldmine-scene/Tecniche.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackaL\source\repos\oldgoldmine-game\oldgoldmine-scene\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damiano\Google Drive\Polito\Informatica grafica\Progetto Grafica\OldGoldMine\oldgoldmine-scene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975311DE-DCD7-440A-802A-B323E1CF20B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50D0053-B893-417F-80C7-ABA2BAB51150}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CA35FD49-B048-4DD9-AC47-1238A26E3A25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CA35FD49-B048-4DD9-AC47-1238A26E3A25}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="48">
   <si>
     <t>\</t>
   </si>
@@ -166,13 +166,22 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>Dynamic  painting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +190,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -208,9 +225,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -530,21 +550,21 @@
   <dimension ref="A1:AK62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="34" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="12" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" customWidth="1"/>
+    <col min="14" max="34" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +601,12 @@
       <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -607,7 +631,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -636,8 +660,12 @@
       <c r="L2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -662,7 +690,7 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -679,7 +707,9 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -705,7 +735,7 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -730,7 +760,9 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -756,7 +788,7 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,8 +815,12 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -809,7 +845,7 @@
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,7 +890,7 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -881,7 +917,9 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -907,7 +945,7 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -956,7 +994,7 @@
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1019,7 +1057,7 @@
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1030,13 +1068,17 @@
       <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1062,7 +1104,7 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1089,7 +1131,9 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1115,7 +1159,7 @@
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1158,7 +1202,7 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1201,7 +1245,7 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1246,7 +1290,7 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1283,8 +1327,12 @@
       <c r="L15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1309,7 +1357,7 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1398,7 @@
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1441,7 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1484,7 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
     </row>
-    <row r="19" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1515,9 @@
       <c r="L19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1493,7 +1543,7 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
     </row>
-    <row r="20" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1536,14 +1586,16 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1559,7 +1611,9 @@
       <c r="H21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1569,7 +1623,9 @@
       <c r="L21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1595,14 +1651,16 @@
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1618,7 +1676,9 @@
       <c r="H22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1688,9 @@
       <c r="L22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1654,7 +1716,7 @@
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1697,7 +1759,7 @@
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1775,9 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1738,7 +1802,7 @@
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1775,8 +1839,12 @@
       <c r="L25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1801,7 +1869,7 @@
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1817,7 +1885,9 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1842,7 +1912,7 @@
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1858,7 +1928,9 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -1883,7 +1955,7 @@
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1920,8 +1992,12 @@
       <c r="L28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1946,7 +2022,7 @@
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
     </row>
-    <row r="29" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2059,12 @@
       <c r="L29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2009,7 +2089,7 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2052,7 +2132,7 @@
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="1:37" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2070,7 +2150,9 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2095,11 +2177,16 @@
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="P32" s="2"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -2122,7 +2209,7 @@
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
     </row>
-    <row r="33" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2149,7 +2236,7 @@
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
     </row>
-    <row r="34" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2176,7 +2263,7 @@
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
     </row>
-    <row r="35" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2203,7 +2290,7 @@
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
     </row>
-    <row r="36" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2230,7 +2317,7 @@
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
     </row>
-    <row r="37" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2257,7 +2344,7 @@
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
     </row>
-    <row r="38" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2284,7 +2371,7 @@
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
     </row>
-    <row r="39" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2311,7 +2398,7 @@
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
     </row>
-    <row r="40" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2338,7 +2425,7 @@
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
     </row>
-    <row r="41" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -2365,7 +2452,7 @@
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
     </row>
-    <row r="42" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2392,7 +2479,7 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
     </row>
-    <row r="43" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2419,7 +2506,7 @@
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
     </row>
-    <row r="44" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2446,7 +2533,7 @@
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
     </row>
-    <row r="45" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2473,7 +2560,7 @@
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
     </row>
-    <row r="46" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -2500,7 +2587,7 @@
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
     </row>
-    <row r="47" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2539,7 +2626,7 @@
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
     </row>
-    <row r="48" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2578,7 +2665,7 @@
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
     </row>
-    <row r="49" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2617,7 +2704,7 @@
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
     </row>
-    <row r="50" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2656,7 +2743,7 @@
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
     </row>
-    <row r="51" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2695,7 +2782,7 @@
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
     </row>
-    <row r="52" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2734,7 +2821,7 @@
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
     </row>
-    <row r="53" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2773,7 +2860,7 @@
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
     </row>
-    <row r="54" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2812,7 +2899,7 @@
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2851,7 +2938,7 @@
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
     </row>
-    <row r="56" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2890,7 +2977,7 @@
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
     </row>
-    <row r="57" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2929,7 +3016,7 @@
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
     </row>
-    <row r="58" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2968,7 +3055,7 @@
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
     </row>
-    <row r="59" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3007,7 +3094,7 @@
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
     </row>
-    <row r="60" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3046,7 +3133,7 @@
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
     </row>
-    <row r="61" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3085,7 +3172,7 @@
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
     </row>
-    <row r="62" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
